--- a/results/mp/logistic/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,36 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>die</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -79,43 +79,49 @@
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>hand</t>
@@ -124,34 +130,34 @@
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>friends</t>
@@ -160,70 +166,82 @@
     <t>nice</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>god</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>boost</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>dear</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -581,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7363013698630136</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7465753424657534</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,37 +818,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5769230769230769</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>15</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4722222222222222</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4594594594594595</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -968,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8484848484848485</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,37 +1018,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4473684210526316</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>17</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8421052631578947</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8276762402088773</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.417989417989418</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3391472868217054</v>
+        <v>0.3197674418604651</v>
       </c>
       <c r="C13">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1242,13 @@
         <v>37</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2711864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.796875</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2363636363636364</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2133333333333333</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2013422818791946</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7708333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,37 +1468,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.004188144329896907</v>
+        <v>0.005152979066022544</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="F19">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7625</v>
+        <v>0.775</v>
       </c>
       <c r="L19">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M19">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1526,13 +1544,13 @@
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1544,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1552,13 +1570,13 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>0.723404255319149</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1578,13 +1596,13 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1596,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1604,13 +1622,13 @@
         <v>47</v>
       </c>
       <c r="K24">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1622,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1630,13 +1648,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1648,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1656,13 +1674,13 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6818181818181818</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1674,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1682,13 +1700,13 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6744186046511628</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1700,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1708,13 +1726,13 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>0.66</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1726,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1734,13 +1752,13 @@
         <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6507936507936508</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1752,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1760,13 +1778,13 @@
         <v>53</v>
       </c>
       <c r="K30">
-        <v>0.625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1778,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1786,13 +1804,13 @@
         <v>54</v>
       </c>
       <c r="K31">
-        <v>0.6071428571428571</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1804,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1812,13 +1830,13 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1838,13 +1856,13 @@
         <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5941176470588235</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L33">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M33">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1856,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1864,13 +1882,13 @@
         <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5899581589958159</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L34">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1882,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1890,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="K35">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1908,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1916,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="K36">
-        <v>0.5531914893617021</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1934,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1942,13 +1960,13 @@
         <v>60</v>
       </c>
       <c r="K37">
-        <v>0.5454545454545454</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1960,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1968,13 +1986,13 @@
         <v>61</v>
       </c>
       <c r="K38">
-        <v>0.5389830508474577</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1986,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>136</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1994,13 +2012,13 @@
         <v>62</v>
       </c>
       <c r="K39">
-        <v>0.4857142857142857</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2012,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2020,13 +2038,13 @@
         <v>63</v>
       </c>
       <c r="K40">
-        <v>0.4769230769230769</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2038,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2046,13 +2064,13 @@
         <v>64</v>
       </c>
       <c r="K41">
-        <v>0.4642857142857143</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2064,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2072,13 +2090,13 @@
         <v>65</v>
       </c>
       <c r="K42">
-        <v>0.4044943820224719</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2090,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2098,13 +2116,13 @@
         <v>66</v>
       </c>
       <c r="K43">
-        <v>0.3809523809523809</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2116,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2124,13 +2142,13 @@
         <v>67</v>
       </c>
       <c r="K44">
-        <v>0.3529411764705883</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2142,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2150,13 +2168,13 @@
         <v>68</v>
       </c>
       <c r="K45">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2168,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2176,13 +2194,13 @@
         <v>69</v>
       </c>
       <c r="K46">
-        <v>0.2328767123287671</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2194,7 +2212,163 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L49">
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>24</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50">
+        <v>0.2549019607843137</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52">
+        <v>0.234375</v>
+      </c>
+      <c r="L52">
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
